--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clear mind\Modulo-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clear mind\Modulo-3\Inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
     <t>CATEGORIAS</t>
   </si>
@@ -828,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N79"/>
+  <dimension ref="B1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,6 +1821,11 @@
       </c>
       <c r="H79" s="1">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
